--- a/Data/18-11-2024-data.xlsx
+++ b/Data/18-11-2024-data.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelkosik/Documents/GitHub/MPC_SPS_2024/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B883B43-C6F8-45B8-B59F-57425A73B00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD64E92-7DE2-0943-ACC0-93141446A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D850CBAC-BE53-4A6E-97D3-BA9F6590C1E4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="1" xr2:uid="{D850CBAC-BE53-4A6E-97D3-BA9F6590C1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Graf1" sheetId="2" r:id="rId1"/>
     <sheet name="Hárok1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hárok1!$C$3:$C$140</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hárok1!$C$3:$C$140</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -92,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -112,7 +116,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sk-SK"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1563,7 +1567,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1419250768"/>
@@ -1641,7 +1645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1419251248"/>
@@ -1690,13 +1694,731 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok1!$C$3:$C$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A010-B342-8556-363B38906CD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1399182816"/>
+        <c:axId val="1399041776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1399182816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399041776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399041776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399182816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2233,6 +2955,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2296,8 +3534,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527392</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387692</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130834</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A4B3D7-AFE6-C21D-3ECB-9866FE378E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2615,18 +3894,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAB3854-99D6-4DA4-B571-0F0D3259049E}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="222" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2637,7 +3916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1963</v>
       </c>
@@ -2659,7 +3938,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1967</v>
       </c>
@@ -2670,7 +3949,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1965</v>
       </c>
@@ -2681,7 +3960,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1952</v>
       </c>
@@ -2692,7 +3971,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1955</v>
       </c>
@@ -2703,7 +3982,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1956</v>
       </c>
@@ -2714,7 +3993,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1927</v>
       </c>
@@ -2725,7 +4004,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1935</v>
       </c>
@@ -2736,7 +4015,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1927</v>
       </c>
@@ -2747,7 +4026,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1945</v>
       </c>
@@ -2758,7 +4037,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -2769,7 +4048,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1959</v>
       </c>
@@ -2780,7 +4059,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1964</v>
       </c>
@@ -2791,7 +4070,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1971</v>
       </c>
@@ -2802,7 +4081,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1978</v>
       </c>
@@ -2813,7 +4092,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1963</v>
       </c>
@@ -2824,7 +4103,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1973</v>
       </c>
@@ -2835,7 +4114,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1979</v>
       </c>
@@ -2846,7 +4125,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1966</v>
       </c>
@@ -2857,7 +4136,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1953</v>
       </c>
@@ -2868,7 +4147,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1975</v>
       </c>
@@ -2879,7 +4158,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1966</v>
       </c>
@@ -2890,7 +4169,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1959</v>
       </c>
@@ -2901,7 +4180,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1962</v>
       </c>
@@ -2912,7 +4191,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1979</v>
       </c>
@@ -2923,7 +4202,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1968</v>
       </c>
@@ -2934,7 +4213,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1920</v>
       </c>
@@ -2945,7 +4224,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1950</v>
       </c>
@@ -2956,7 +4235,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1886</v>
       </c>
@@ -2967,7 +4246,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1933</v>
       </c>
@@ -2978,7 +4257,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1949</v>
       </c>
@@ -2989,7 +4268,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1955</v>
       </c>
@@ -3000,7 +4279,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1952</v>
       </c>
@@ -3011,7 +4290,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1956</v>
       </c>
@@ -3022,7 +4301,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1963</v>
       </c>
@@ -3033,7 +4312,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1967</v>
       </c>
@@ -3044,7 +4323,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1953</v>
       </c>
@@ -3055,7 +4334,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1958</v>
       </c>
@@ -3066,7 +4345,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1916</v>
       </c>
@@ -3077,7 +4356,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1938</v>
       </c>
@@ -3088,7 +4367,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1943</v>
       </c>
@@ -3099,7 +4378,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1954</v>
       </c>
@@ -3110,7 +4389,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1966</v>
       </c>
@@ -3121,7 +4400,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1972</v>
       </c>
@@ -3132,7 +4411,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1977</v>
       </c>
@@ -3143,7 +4422,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1979</v>
       </c>
@@ -3154,7 +4433,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1985</v>
       </c>
@@ -3165,7 +4444,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1995</v>
       </c>
@@ -3176,7 +4455,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1990</v>
       </c>
@@ -3187,7 +4466,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1986</v>
       </c>
@@ -3198,7 +4477,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1975</v>
       </c>
@@ -3209,7 +4488,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1973</v>
       </c>
@@ -3220,7 +4499,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1981</v>
       </c>
@@ -3231,7 +4510,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1988</v>
       </c>
@@ -3242,7 +4521,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1987</v>
       </c>
@@ -3253,7 +4532,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1954</v>
       </c>
@@ -3264,7 +4543,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1927</v>
       </c>
@@ -3275,7 +4554,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1943</v>
       </c>
@@ -3286,7 +4565,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1948</v>
       </c>
@@ -3297,7 +4576,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1944</v>
       </c>
@@ -3308,7 +4587,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1968</v>
       </c>
@@ -3319,7 +4598,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1965</v>
       </c>
@@ -3330,7 +4609,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1965</v>
       </c>
@@ -3341,7 +4620,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1972</v>
       </c>
@@ -3352,7 +4631,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1958</v>
       </c>
@@ -3363,7 +4642,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1960</v>
       </c>
@@ -3374,7 +4653,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1963</v>
       </c>
@@ -3385,7 +4664,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1969</v>
       </c>
@@ -3396,7 +4675,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1973</v>
       </c>
@@ -3407,7 +4686,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1962</v>
       </c>
@@ -3418,7 +4697,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1915</v>
       </c>
@@ -3429,7 +4708,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1932</v>
       </c>
@@ -3440,7 +4719,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1933</v>
       </c>
@@ -3451,7 +4730,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1890</v>
       </c>
@@ -3462,7 +4741,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1960</v>
       </c>
@@ -3473,7 +4752,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1931</v>
       </c>
@@ -3484,7 +4763,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1960</v>
       </c>
@@ -3495,7 +4774,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1954</v>
       </c>
@@ -3506,7 +4785,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1948</v>
       </c>
@@ -3517,7 +4796,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1944</v>
       </c>
@@ -3528,7 +4807,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1944</v>
       </c>
@@ -3539,7 +4818,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1961</v>
       </c>
@@ -3550,7 +4829,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1963</v>
       </c>
@@ -3561,7 +4840,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1955</v>
       </c>
@@ -3572,7 +4851,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1971</v>
       </c>
@@ -3583,7 +4862,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1997</v>
       </c>
@@ -3594,7 +4873,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1957</v>
       </c>
@@ -3605,7 +4884,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1977</v>
       </c>
@@ -3616,7 +4895,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1968</v>
       </c>
@@ -3627,7 +4906,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1979</v>
       </c>
@@ -3638,7 +4917,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1955</v>
       </c>
@@ -3649,7 +4928,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1980</v>
       </c>
@@ -3660,7 +4939,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1977</v>
       </c>
@@ -3671,7 +4950,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1969</v>
       </c>
@@ -3682,7 +4961,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1991</v>
       </c>
@@ -3693,7 +4972,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1992</v>
       </c>
@@ -3704,7 +4983,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2006</v>
       </c>
@@ -3715,7 +4994,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1992</v>
       </c>
@@ -3726,7 +5005,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1970</v>
       </c>
@@ -3737,7 +5016,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1976</v>
       </c>
@@ -3748,7 +5027,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1965</v>
       </c>
@@ -3759,7 +5038,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1971</v>
       </c>
@@ -3770,7 +5049,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1962</v>
       </c>
@@ -3781,7 +5060,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1976</v>
       </c>
@@ -3792,7 +5071,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1953</v>
       </c>
@@ -3803,7 +5082,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1912</v>
       </c>
@@ -3814,7 +5093,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1930</v>
       </c>
@@ -3825,7 +5104,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1951</v>
       </c>
@@ -3836,7 +5115,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1939</v>
       </c>
@@ -3847,7 +5126,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1939</v>
       </c>
@@ -3858,7 +5137,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1956</v>
       </c>
@@ -3869,7 +5148,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1948</v>
       </c>
@@ -3880,7 +5159,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1943</v>
       </c>
@@ -3891,7 +5170,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1965</v>
       </c>
@@ -3902,7 +5181,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1949</v>
       </c>
@@ -3913,7 +5192,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1970</v>
       </c>
@@ -3924,7 +5203,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1965</v>
       </c>
@@ -3935,7 +5214,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1957</v>
       </c>
@@ -3946,7 +5225,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1951</v>
       </c>
@@ -3957,7 +5236,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1973</v>
       </c>
@@ -3968,7 +5247,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1956</v>
       </c>
@@ -3979,7 +5258,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1976</v>
       </c>
@@ -3990,7 +5269,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1964</v>
       </c>
@@ -4001,7 +5280,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1967</v>
       </c>
@@ -4012,7 +5291,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1962</v>
       </c>
@@ -4023,7 +5302,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1961</v>
       </c>
@@ -4034,7 +5313,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1964</v>
       </c>
@@ -4045,7 +5324,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1960</v>
       </c>
@@ -4056,7 +5335,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1964</v>
       </c>
@@ -4067,7 +5346,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1971</v>
       </c>
@@ -4078,7 +5357,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1957</v>
       </c>
@@ -4089,7 +5368,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1966</v>
       </c>
@@ -4100,7 +5379,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1919</v>
       </c>
@@ -4111,7 +5390,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1912</v>
       </c>
@@ -4122,7 +5401,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1967</v>
       </c>
@@ -4133,7 +5412,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1968</v>
       </c>
@@ -4144,7 +5423,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -4155,7 +5434,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C140">
         <v>1962</v>
       </c>
@@ -4163,7 +5442,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>1</v>
       </c>
@@ -4171,7 +5450,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C142">
         <v>1967</v>
       </c>
@@ -4179,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C143">
         <v>1935</v>
       </c>
@@ -4187,12 +5466,13 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F144">
         <v>1963</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>